--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -429,6 +444,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -517,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -529,6 +547,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -550,285 +569,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -850,2145 +914,2469 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,73 +32,76 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>43.1</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -915,2468 +918,2468 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,24 +47,27 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -449,7 +452,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -538,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -550,7 +553,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -670,13 +673,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -693,13 +696,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -716,13 +719,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -739,13 +742,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -762,13 +765,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -785,7 +788,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -808,7 +811,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -854,7 +857,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -877,7 +880,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -899,2487 +902,2510 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>34</v>
+      <c r="C124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -224,6 +224,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -425,22 +431,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -541,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1616,22 +1622,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>35</v>
@@ -1639,22 +1645,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -1662,19 +1668,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1714,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1737,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1777,22 +1783,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>35</v>
@@ -1800,22 +1806,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>35</v>
@@ -1823,22 +1829,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>35</v>
@@ -1846,22 +1852,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1869,22 +1875,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1921,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1944,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1961,22 +1967,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2030,22 +2036,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>35</v>
@@ -2053,22 +2059,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>35</v>
@@ -2076,22 +2082,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>35</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2168,10 +2174,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2180,7 +2186,7 @@
         <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2220,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2243,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2260,10 +2266,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>20</v>
@@ -2272,7 +2278,7 @@
         <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2283,10 +2289,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>20</v>
@@ -2295,7 +2301,7 @@
         <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2312,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2329,7 +2335,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>108</v>
@@ -2338,10 +2344,10 @@
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2381,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2427,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2444,10 +2450,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2456,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2467,10 +2473,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2479,7 +2485,7 @@
         <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2496,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2519,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2565,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2588,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2634,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2680,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2703,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2726,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2749,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2766,22 +2772,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2789,19 +2795,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>22</v>
@@ -2812,599 +2818,668 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -458,7 +458,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -559,7 +562,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3373,7 +3376,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
@@ -3393,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>25</v>
@@ -3439,10 +3442,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>20</v>
@@ -3451,7 +3454,7 @@
         <v>33</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3462,10 +3465,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>20</v>
@@ -3474,7 +3477,7 @@
         <v>102</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3376,7 +3373,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
@@ -3396,19 +3393,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3416,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>25</v>
@@ -3442,10 +3439,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>20</v>
@@ -3454,7 +3451,7 @@
         <v>33</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,10 +3462,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>20</v>
@@ -3477,7 +3474,7 @@
         <v>102</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3373,7 +3376,7 @@
         <v>145</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
@@ -3393,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>25</v>
@@ -3439,10 +3442,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>20</v>
@@ -3451,7 +3454,7 @@
         <v>33</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3462,10 +3465,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>20</v>
@@ -3474,7 +3477,7 @@
         <v>102</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t>43.1,30</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -550,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -560,7 +590,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2177,19 +2207,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2200,22 +2230,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>35</v>
@@ -2223,19 +2253,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,22 +2276,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2269,22 +2299,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2292,19 +2322,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2345,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2368,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2391,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2414,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2437,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2460,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2483,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2506,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2529,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2552,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2575,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2598,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2621,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2644,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2667,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2690,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2713,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2736,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2759,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2782,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2805,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2798,22 +2828,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2821,22 +2851,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2844,19 +2874,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,622 +2897,829 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G126" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E127" s="2" t="s">
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -2650,7 +2650,7 @@
         <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>112</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -176,6 +176,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -230,13 +236,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -580,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1678,22 +1684,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -1701,22 +1707,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1839,22 +1845,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>35</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>21</v>
@@ -1908,22 +1914,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1931,22 +1937,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1954,22 +1960,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2046,22 +2052,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2098,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2115,22 +2121,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>35</v>
@@ -2138,22 +2144,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>35</v>
@@ -2161,22 +2167,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2184,19 +2190,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2230,22 +2236,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>35</v>
@@ -2253,19 +2259,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2299,22 +2305,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2322,22 +2328,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2345,22 +2351,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2368,10 +2374,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2380,7 +2386,7 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2443,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2483,10 +2489,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>20</v>
@@ -2495,7 +2501,7 @@
         <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>58</v>
@@ -2515,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>59</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2581,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2604,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2650,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2667,19 +2673,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2719,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2742,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2759,10 +2765,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2771,7 +2777,7 @@
         <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2782,10 +2788,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2794,7 +2800,7 @@
         <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2811,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2857,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2903,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2926,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2949,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2972,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2989,19 +2995,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3018,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3035,22 +3041,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3058,22 +3064,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3081,19 +3087,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3104,622 +3110,714 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G132" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B136" s="2" t="s">
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1707,22 +1713,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1730,22 +1736,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1891,22 +1897,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1914,22 +1920,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1937,22 +1943,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
@@ -1983,22 +1989,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2052,22 +2058,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2167,22 +2173,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2190,22 +2196,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2213,22 +2219,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2282,22 +2288,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2351,22 +2357,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2374,22 +2380,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2397,22 +2403,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2420,10 +2426,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2432,7 +2438,7 @@
         <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2535,10 +2541,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>20</v>
@@ -2547,7 +2553,7 @@
         <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2558,10 +2564,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>20</v>
@@ -2570,7 +2576,7 @@
         <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2604,7 +2610,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>122</v>
@@ -2613,10 +2619,10 @@
         <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2633,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2656,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2679,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2702,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2725,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2748,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2771,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2794,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2834,10 +2840,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2846,7 +2852,7 @@
         <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2857,10 +2863,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2869,7 +2875,7 @@
         <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2886,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2932,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3024,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3070,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3093,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3110,22 +3116,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3133,22 +3139,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3156,22 +3162,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>35</v>
@@ -3179,645 +3185,714 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G136" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1736,22 +1742,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1759,22 +1765,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>35</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1920,22 +1926,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1943,22 +1949,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1966,22 +1972,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
@@ -2012,22 +2018,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2058,22 +2064,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2081,22 +2087,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>35</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2219,22 +2225,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2242,22 +2248,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>35</v>
@@ -2265,22 +2271,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>35</v>
@@ -2288,19 +2294,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2334,22 +2340,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
@@ -2403,22 +2409,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2426,22 +2432,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2449,22 +2455,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2472,10 +2478,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2484,7 +2490,7 @@
         <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2587,10 +2593,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>20</v>
@@ -2599,7 +2605,7 @@
         <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2610,10 +2616,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>20</v>
@@ -2622,7 +2628,7 @@
         <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2656,7 +2662,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>124</v>
@@ -2665,10 +2671,10 @@
         <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2794,19 +2800,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,19 +2846,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2886,10 +2892,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2898,7 +2904,7 @@
         <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2909,10 +2915,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2921,7 +2927,7 @@
         <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2961,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3099,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3122,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,22 +3168,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>35</v>
@@ -3185,22 +3191,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>35</v>
@@ -3208,22 +3214,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>35</v>
@@ -3231,668 +3237,737 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G139" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t>flagTrasmissioneResidenzaEstera</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -598,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2496,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
@@ -2519,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
@@ -2527,22 +2536,22 @@
         <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="85">
@@ -2550,22 +2559,22 @@
         <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
@@ -2573,22 +2582,22 @@
         <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
@@ -2596,7 +2605,7 @@
         <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>20</v>
@@ -2605,13 +2614,13 @@
         <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88">
@@ -2619,7 +2628,7 @@
         <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>20</v>
@@ -2628,13 +2637,13 @@
         <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89">
@@ -2642,22 +2651,22 @@
         <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90">
@@ -2665,22 +2674,22 @@
         <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91">
@@ -2688,22 +2697,22 @@
         <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
@@ -2711,22 +2720,22 @@
         <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93">
@@ -2734,7 +2743,7 @@
         <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2743,13 +2752,13 @@
         <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94">
@@ -2757,22 +2766,22 @@
         <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95">
@@ -2780,22 +2789,22 @@
         <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96">
@@ -2803,7 +2812,7 @@
         <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2812,13 +2821,13 @@
         <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97">
@@ -2826,22 +2835,22 @@
         <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98">
@@ -2849,7 +2858,7 @@
         <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2858,13 +2867,13 @@
         <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99">
@@ -2872,7 +2881,7 @@
         <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2881,13 +2890,13 @@
         <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100">
@@ -2895,7 +2904,7 @@
         <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2904,13 +2913,13 @@
         <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101">
@@ -2918,7 +2927,7 @@
         <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2927,13 +2936,13 @@
         <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
@@ -2941,22 +2950,22 @@
         <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103">
@@ -2964,246 +2973,246 @@
         <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,22 +3223,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>35</v>
@@ -3237,22 +3246,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>35</v>
@@ -3260,19 +3269,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,122 +3292,122 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>60</v>
@@ -3407,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>61</v>
@@ -3416,21 +3425,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>63</v>
@@ -3439,12 +3448,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>64</v>
@@ -3453,7 +3462,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>65</v>
@@ -3462,35 +3471,35 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>68</v>
@@ -3499,7 +3508,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>69</v>
@@ -3508,12 +3517,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>70</v>
@@ -3522,378 +3531,378 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,22 +3913,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>35</v>
@@ -3927,22 +3936,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>35</v>
@@ -3950,24 +3959,737 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="G148" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="F175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="C176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -607,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3988,7 +3994,7 @@
         <v>162</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>142</v>
@@ -3997,7 +4003,7 @@
         <v>163</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>35</v>
@@ -4005,605 +4011,605 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>170</v>
@@ -4612,36 +4618,36 @@
         <v>20</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>35</v>
@@ -4649,22 +4655,22 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>35</v>
@@ -4672,7 +4678,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>177</v>
@@ -4681,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>178</v>
@@ -4690,6 +4696,29 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -4316,7 +4316,7 @@
         <v>74</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>167</v>
@@ -4339,7 +4339,7 @@
         <v>76</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>167</v>
@@ -4348,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>169</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_072.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="185">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -613,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1780,22 +1792,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>35</v>
@@ -1803,19 +1815,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1826,22 +1838,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>35</v>
@@ -1849,19 +1861,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1884,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1907,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1930,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1941,22 +1953,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1964,22 +1976,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1987,19 +1999,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2010,22 +2022,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -2033,22 +2045,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -2056,22 +2068,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>35</v>
@@ -2079,19 +2091,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2114,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2125,19 +2137,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2148,19 +2160,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2171,22 +2183,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>35</v>
@@ -2194,22 +2206,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2217,19 +2229,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2240,19 +2252,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2275,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2286,22 +2298,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>35</v>
@@ -2309,22 +2321,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2332,19 +2344,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2355,22 +2367,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2378,22 +2390,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2401,22 +2413,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2424,19 +2436,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2447,22 +2459,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2470,22 +2482,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2493,870 +2505,870 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3379,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3402,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3425,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3448,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3471,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3494,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3517,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3528,19 +3540,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3551,19 +3563,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3574,19 +3586,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3597,19 +3609,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3620,19 +3632,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3643,19 +3655,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3666,19 +3678,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3689,16 +3701,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>136</v>
@@ -3712,19 +3724,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3735,19 +3747,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3758,19 +3770,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3781,19 +3793,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3804,19 +3816,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3827,19 +3839,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3850,19 +3862,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3873,19 +3885,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3896,19 +3908,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3919,19 +3931,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3942,22 +3954,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>35</v>
@@ -3965,22 +3977,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>35</v>
@@ -3988,22 +4000,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>35</v>
@@ -4011,19 +4023,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4034,691 +4046,875 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
+      <c r="F184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>35</v>
       </c>
     </row>
